--- a/PhillipsFitData.xlsx
+++ b/PhillipsFitData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">commonCarp</t>
   </si>
   <si>
-    <t xml:space="preserve">cuskEel</t>
+    <t xml:space="preserve">silverEel</t>
   </si>
   <si>
     <t xml:space="preserve">orca</t>
@@ -235,7 +235,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -246,6 +246,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -267,11 +271,11 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.37"/>
@@ -472,56 +476,56 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0.370786516853933</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.22255181653752</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.377306002928258</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.215399175327144</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0.0619757973564997</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0.00271548293459434</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="3" t="n">
+        <v>0.36718</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.062408</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.331647</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.066535</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0.057731</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0.404427645788337</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.236182178562144</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.509090909090909</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0.26058184043686</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0.164967820671959</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0.184600002394837</v>
+      <c r="C9" s="3" t="n">
+        <v>0.392902</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.193126</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.380668</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.207659</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0.083696</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0.000399</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,10 +703,10 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1054,104 +1058,104 @@
         <v>-0.0231458013256615</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>-1.98828985290076</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>5.52807787896639</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>-5.51737694536175</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>2.76427190953585</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>-1.34905711721486</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0.565915676352694</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0.00748098456300278</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>10.8100811505933</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>-29.0922348471642</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>29.0360633046738</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>-13.7620754607147</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>3.90653385143198</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>-0.831839870096466</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>-0.012868812825427</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="3" t="n">
+        <v>-3.607247</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>11.181046</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>-13.408827</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>7.896057</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>-2.445462</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0.403262</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0.00059</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>2.945348</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>-10.062284</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>13.280793</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>-8.449827</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>2.672691</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>-0.379405</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>-0.01426</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>-17.4458417613405</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>49.650283195201</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>-53.466540046546</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>27.4837748768437</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>-7.39920116394137</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1.17723840277482</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0.00906397862654696</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>3.90233088421591</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>-13.339525518849</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>16.6170433908159</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>-9.24574276532824</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>2.74758611580109</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>-0.67275101480364</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>-0.0153373032243585</v>
+      <c r="C9" s="3" t="n">
+        <v>-8.635045</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>25.870542</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>-29.225367</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>15.601811</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>-4.415888</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0.81486</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0.005709</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>9.081191</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>-27.216055</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>31.459547</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>-17.808866</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>5.455846</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>-0.948852</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>-0.019128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,11 +1476,11 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1744,79 +1748,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0.370786516853933</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.19455181653752</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.0337078651685393</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0.370786516853933</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0.19455181653752</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0.0337078651685393</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="3" t="n">
+        <v>0.36718</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.051408</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.010106</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0.36718</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0.051408</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0.010106</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0.404427645788337</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.209182178562144</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.0129589632829374</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0.404427645788337</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0.209182178562144</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0.0129589632829374</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="0" t="n">
+      <c r="C9" s="3" t="n">
+        <v>0.392902</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.173126</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.013308</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0.392902</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0.173126</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0.013308</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PhillipsFitData.xlsx
+++ b/PhillipsFitData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="44">
   <si>
     <t xml:space="preserve">Species Name</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t xml:space="preserve">nyuiDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faKnifefish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uvTunabot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roboSalmon</t>
   </si>
   <si>
     <t xml:space="preserve">Ta6</t>
@@ -269,13 +278,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.37"/>
@@ -682,6 +691,84 @@
       </c>
       <c r="H15" s="0" t="n">
         <v>-6.78667775158015E-005</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.504785</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0.357151</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0.272803</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0.239633</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0.394649</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0.318773</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0.109935</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>-0.000518</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0.289474</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0.174555</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.293086</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0.201284</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0.110346</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +787,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.28"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -716,46 +807,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,6 +1547,156 @@
       </c>
       <c r="P15" s="0" t="n">
         <v>-0.0268171645185479</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>-36.538935</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>106.782995</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>-120.461448</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>66.553295</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>-18.946573</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>2.679381</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>-0.001356</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>34.012798</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>-104.583082</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>125.325107</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>-73.174818</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>21.142012</v>
+      </c>
+      <c r="O16" s="3" t="n">
+        <v>-2.660859</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>-0.068477</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>-6.665248</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>21.669911</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>-26.526963</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>15.699806</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>-5.434693</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>1.272402</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>-6.1E-005</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>6.580986</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>-21.598387</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>26.721451</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>-15.780824</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>5.225977</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>-1.134707</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>-0.019814</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>-7.26796</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>20.563468</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>-22.847882</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>13.260921</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>-4.659907</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0.961555</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0.007862</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>7.544921</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>-22.56486</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>26.168475</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>-15.334019</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>5.200607</v>
+      </c>
+      <c r="O18" s="3" t="n">
+        <v>-0.99769</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>-0.020522</v>
       </c>
     </row>
   </sheetData>
@@ -1474,13 +1715,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1490,34 +1734,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,6 +2293,120 @@
         <v>0</v>
       </c>
       <c r="L15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.068282</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>0.068282</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0.289474</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0.143555</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.012632</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0.289474</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0.143555</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>0.012632</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="n">
         <v>0</v>
       </c>
     </row>
